--- a/BKQBF_TAB-5.xlsx
+++ b/BKQBF_TAB-5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e0ddff5975960f05/Dcts_BK_compartilhado/BI_Arquivos_compartilhado/c_Sistema_BKQBF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e0ddff5975960f05/Dcts_BK_compartilhado/BI_Arquivos_compartilhado/c_Sistema_BKQBF/BK_Compra_Perfeita/CPerfect_Files_GitHub/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{BC93C416-C7D8-4083-8F6A-97B4473368CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88C421D7-2203-4D9A-8F81-728174EDB160}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="8_{BC93C416-C7D8-4083-8F6A-97B4473368CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85BE19C2-EB3B-4047-A157-9CC2138FCB4E}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="780" windowWidth="20460" windowHeight="10740" xr2:uid="{53633E7E-D6F2-4DB1-8EFC-B5ACF3C598DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{53633E7E-D6F2-4DB1-8EFC-B5ACF3C598DF}"/>
   </bookViews>
   <sheets>
     <sheet name="PackingList" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="172">
   <si>
     <t>DESCRIÇÃO</t>
   </si>
@@ -744,10 +744,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1067,9 +1063,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB15583B-E240-453F-9C06-A311E2614116}">
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2285,34 +2283,34 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>35057</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C72" s="8">
-        <v>5</v>
-      </c>
-      <c r="D72" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E72" s="7">
+      <c r="A72" s="15">
+        <v>31543</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="17">
+        <v>1000</v>
+      </c>
+      <c r="D72" s="17">
+        <v>50</v>
+      </c>
+      <c r="E72" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
-        <v>2250</v>
+        <v>35057</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C73" s="8">
-        <v>18</v>
-      </c>
-      <c r="D73" s="9">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="D73" s="8">
+        <v>0.5</v>
       </c>
       <c r="E73" s="7">
         <v>1</v>
@@ -2320,10 +2318,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
-        <v>2243</v>
+        <v>2250</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C74" s="8">
         <v>18</v>
@@ -2337,13 +2335,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
-        <v>9085</v>
+        <v>2243</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C75" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D75" s="9">
         <v>0</v>
@@ -2354,10 +2352,10 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
-        <v>9084</v>
+        <v>9085</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C76" s="8">
         <v>12</v>
@@ -2371,13 +2369,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
-        <v>3043</v>
+        <v>9084</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C77" s="8">
-        <v>2400</v>
+        <v>12</v>
       </c>
       <c r="D77" s="9">
         <v>0</v>
@@ -2388,16 +2386,16 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
-        <v>31886</v>
+        <v>3043</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C78" s="8">
-        <v>5400</v>
-      </c>
-      <c r="D78" s="8">
-        <v>300</v>
+        <v>2400</v>
+      </c>
+      <c r="D78" s="9">
+        <v>0</v>
       </c>
       <c r="E78" s="7">
         <v>1</v>
@@ -2405,16 +2403,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
-        <v>9241</v>
+        <v>31886</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C79" s="8">
-        <v>5000</v>
+        <v>5400</v>
       </c>
       <c r="D79" s="8">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E79" s="7">
         <v>1</v>
@@ -2422,16 +2420,16 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
-        <v>38178</v>
+        <v>9241</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C80" s="8">
-        <v>122</v>
-      </c>
-      <c r="D80" s="9">
-        <v>0</v>
+        <v>5000</v>
+      </c>
+      <c r="D80" s="8">
+        <v>100</v>
       </c>
       <c r="E80" s="7">
         <v>1</v>
@@ -2439,13 +2437,13 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
-        <v>35365</v>
+        <v>38178</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C81" s="8">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="D81" s="9">
         <v>0</v>
@@ -2456,16 +2454,16 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
-        <v>30489</v>
+        <v>35365</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C82" s="8">
-        <v>16</v>
-      </c>
-      <c r="D82" s="8">
-        <v>2</v>
+        <v>24</v>
+      </c>
+      <c r="D82" s="9">
+        <v>0</v>
       </c>
       <c r="E82" s="7">
         <v>1</v>
@@ -2473,16 +2471,16 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
-        <v>32388</v>
+        <v>30489</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C83" s="8">
-        <v>400</v>
-      </c>
-      <c r="D83" s="9">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="D83" s="8">
+        <v>2</v>
       </c>
       <c r="E83" s="7">
         <v>1</v>
@@ -2490,13 +2488,13 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
-        <v>29403</v>
+        <v>32388</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C84" s="9">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="C84" s="8">
+        <v>400</v>
       </c>
       <c r="D84" s="9">
         <v>0</v>
@@ -2507,13 +2505,13 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
-        <v>36308</v>
+        <v>29403</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" s="10">
-        <v>500</v>
+        <v>79</v>
+      </c>
+      <c r="C85" s="9">
+        <v>0</v>
       </c>
       <c r="D85" s="9">
         <v>0</v>
@@ -2524,16 +2522,16 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
-        <v>29004</v>
+        <v>36308</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C86" s="8">
-        <v>3000</v>
-      </c>
-      <c r="D86" s="8">
+        <v>80</v>
+      </c>
+      <c r="C86" s="10">
         <v>500</v>
+      </c>
+      <c r="D86" s="9">
+        <v>0</v>
       </c>
       <c r="E86" s="7">
         <v>1</v>
@@ -2541,10 +2539,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
-        <v>29003</v>
+        <v>29004</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C87" s="8">
         <v>3000</v>
@@ -2558,10 +2556,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
-        <v>29001</v>
+        <v>29003</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88" s="8">
         <v>3000</v>
@@ -2575,15 +2573,15 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
-        <v>38726</v>
+        <v>29001</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C89" s="8">
         <v>3000</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D89" s="8">
         <v>500</v>
       </c>
       <c r="E89" s="7">
@@ -2592,15 +2590,15 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
-        <v>29857</v>
+        <v>38726</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C90" s="8">
         <v>3000</v>
       </c>
-      <c r="D90" s="8">
+      <c r="D90" s="11">
         <v>500</v>
       </c>
       <c r="E90" s="7">
@@ -2609,10 +2607,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
-        <v>28999</v>
+        <v>29857</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C91" s="8">
         <v>3000</v>
@@ -2626,10 +2624,10 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
-        <v>29000</v>
+        <v>28999</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C92" s="8">
         <v>3000</v>
@@ -2643,10 +2641,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
-        <v>29002</v>
+        <v>29000</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C93" s="8">
         <v>3000</v>
@@ -2660,16 +2658,16 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
-        <v>34607</v>
+        <v>29002</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C94" s="8">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="D94" s="9">
-        <v>0</v>
+        <v>3000</v>
+      </c>
+      <c r="D94" s="8">
+        <v>500</v>
       </c>
       <c r="E94" s="7">
         <v>1</v>
@@ -2677,16 +2675,16 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
-        <v>39142</v>
+        <v>34607</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C95" s="8">
-        <v>6.9</v>
-      </c>
-      <c r="D95" s="8">
-        <v>0.57499999999999996</v>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D95" s="9">
+        <v>0</v>
       </c>
       <c r="E95" s="7">
         <v>1</v>
@@ -2694,16 +2692,16 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
-        <v>32374</v>
+        <v>39142</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C96" s="8">
-        <v>18</v>
+        <v>6.9</v>
       </c>
       <c r="D96" s="8">
-        <v>3</v>
+        <v>0.57499999999999996</v>
       </c>
       <c r="E96" s="7">
         <v>1</v>
@@ -2711,16 +2709,16 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
-        <v>37709</v>
+        <v>32374</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="8">
-        <v>5.5</v>
+        <v>18</v>
       </c>
       <c r="D97" s="8">
-        <v>1.1000000000000001</v>
+        <v>3</v>
       </c>
       <c r="E97" s="7">
         <v>1</v>
@@ -2728,10 +2726,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
-        <v>35205</v>
+        <v>37709</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C98" s="8">
         <v>5.5</v>
@@ -2745,16 +2743,16 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
-        <v>35740</v>
+        <v>35205</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C99" s="8">
-        <v>304</v>
-      </c>
-      <c r="D99" s="9">
-        <v>0</v>
+        <v>5.5</v>
+      </c>
+      <c r="D99" s="8">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E99" s="7">
         <v>1</v>
@@ -2762,16 +2760,16 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
-        <v>38474</v>
+        <v>35740</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C100" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="D100" s="11">
-        <v>1.1000000000000001</v>
+        <v>304</v>
+      </c>
+      <c r="D100" s="9">
+        <v>0</v>
       </c>
       <c r="E100" s="7">
         <v>1</v>
@@ -2779,16 +2777,16 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
-        <v>38678</v>
+        <v>38474</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C101" s="8">
-        <v>144</v>
-      </c>
-      <c r="D101" s="6">
-        <v>0</v>
+        <v>5.5</v>
+      </c>
+      <c r="D101" s="11">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E101" s="7">
         <v>1</v>
@@ -2796,16 +2794,16 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
-        <v>35708</v>
+        <v>38678</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C102" s="8">
-        <v>13.16</v>
-      </c>
-      <c r="D102" s="8">
-        <v>1.0900000000000001</v>
+        <v>144</v>
+      </c>
+      <c r="D102" s="6">
+        <v>0</v>
       </c>
       <c r="E102" s="7">
         <v>1</v>
@@ -2813,16 +2811,16 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
-        <v>36083</v>
+        <v>35708</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C103" s="8">
-        <v>5.5</v>
+        <v>13.16</v>
       </c>
       <c r="D103" s="8">
-        <v>1.1000000000000001</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E103" s="7">
         <v>1</v>
@@ -2830,16 +2828,16 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
-        <v>36084</v>
+        <v>36083</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="8">
-        <v>144</v>
-      </c>
-      <c r="D104" s="9">
-        <v>0</v>
+        <v>5.5</v>
+      </c>
+      <c r="D104" s="8">
+        <v>1.1000000000000001</v>
       </c>
       <c r="E104" s="7">
         <v>1</v>
@@ -2847,10 +2845,10 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
-        <v>34862</v>
+        <v>36084</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C105" s="8">
         <v>144</v>
@@ -2864,16 +2862,16 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
-        <v>38460</v>
+        <v>34862</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C106" s="8">
-        <v>6.3</v>
-      </c>
-      <c r="D106" s="10">
-        <v>1.05</v>
+        <v>144</v>
+      </c>
+      <c r="D106" s="9">
+        <v>0</v>
       </c>
       <c r="E106" s="7">
         <v>1</v>
@@ -2881,16 +2879,16 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="4">
-        <v>34638</v>
+        <v>38460</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C107" s="8">
-        <v>5.5</v>
-      </c>
-      <c r="D107" s="8">
-        <v>1.1000000000000001</v>
+        <v>6.3</v>
+      </c>
+      <c r="D107" s="10">
+        <v>1.05</v>
       </c>
       <c r="E107" s="7">
         <v>1</v>
@@ -2898,10 +2896,10 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
-        <v>39190</v>
+        <v>34638</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C108" s="8">
         <v>5.5</v>
@@ -2915,16 +2913,16 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
-        <v>35562</v>
+        <v>39190</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C109" s="8">
-        <v>16</v>
+        <v>5.5</v>
       </c>
       <c r="D109" s="8">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E109" s="7">
         <v>1</v>
@@ -2932,16 +2930,16 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
-        <v>38995</v>
+        <v>35562</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C110" s="8">
-        <v>5.5</v>
+        <v>16</v>
       </c>
       <c r="D110" s="8">
-        <v>1.1000000000000001</v>
+        <v>2</v>
       </c>
       <c r="E110" s="7">
         <v>1</v>
@@ -2949,10 +2947,10 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
-        <v>21288</v>
+        <v>38995</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C111" s="8">
         <v>5.5</v>
@@ -2966,16 +2964,16 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
-        <v>35407</v>
+        <v>21288</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C112" s="8">
-        <v>16</v>
+        <v>5.5</v>
       </c>
       <c r="D112" s="8">
-        <v>2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E112" s="7">
         <v>1</v>
@@ -2983,16 +2981,16 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="4">
-        <v>35408</v>
+        <v>35407</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C113" s="8">
-        <v>2304</v>
-      </c>
-      <c r="D113" s="9">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="D113" s="8">
+        <v>2</v>
       </c>
       <c r="E113" s="7">
         <v>1</v>
@@ -3000,16 +2998,16 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
-        <v>38662</v>
+        <v>35408</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C114" s="8">
-        <v>6</v>
-      </c>
-      <c r="D114" s="10">
-        <v>1</v>
+        <v>2304</v>
+      </c>
+      <c r="D114" s="9">
+        <v>0</v>
       </c>
       <c r="E114" s="7">
         <v>1</v>
@@ -3017,16 +3015,16 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
-        <v>35912</v>
+        <v>38662</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C115" s="8">
         <v>6</v>
       </c>
-      <c r="D115" s="8">
-        <v>3</v>
+      <c r="D115" s="10">
+        <v>1</v>
       </c>
       <c r="E115" s="7">
         <v>1</v>
@@ -3034,13 +3032,13 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
-        <v>20754</v>
+        <v>35912</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C116" s="8">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D116" s="8">
         <v>3</v>
@@ -3051,16 +3049,16 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
-        <v>35194</v>
+        <v>20754</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C117" s="8">
-        <v>14.5</v>
-      </c>
-      <c r="D117" s="9">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="D117" s="8">
+        <v>3</v>
       </c>
       <c r="E117" s="7">
         <v>1</v>
@@ -3068,16 +3066,16 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
-        <v>13363</v>
+        <v>35194</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C118" s="8">
-        <v>11</v>
-      </c>
-      <c r="D118" s="8">
-        <v>1.1000000000000001</v>
+        <v>14.5</v>
+      </c>
+      <c r="D118" s="9">
+        <v>0</v>
       </c>
       <c r="E118" s="7">
         <v>1</v>
@@ -3085,16 +3083,16 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
-        <v>21215</v>
+        <v>13363</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C119" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D119" s="8">
-        <v>0.75</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E119" s="7">
         <v>1</v>
@@ -3102,16 +3100,16 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
-        <v>39041</v>
+        <v>21215</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C120" s="8">
-        <v>160</v>
+        <v>9</v>
       </c>
       <c r="D120" s="8">
-        <v>20</v>
+        <v>0.75</v>
       </c>
       <c r="E120" s="7">
         <v>1</v>
@@ -3119,118 +3117,118 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
+        <v>39041</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C121" s="8">
+        <v>160</v>
+      </c>
+      <c r="D121" s="8">
+        <v>20</v>
+      </c>
+      <c r="E121" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
         <v>35103</v>
       </c>
-      <c r="B121" s="5" t="s">
+      <c r="B122" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C121" s="8">
+      <c r="C122" s="8">
         <v>270</v>
       </c>
-      <c r="D121" s="8">
+      <c r="D122" s="8">
         <v>30</v>
       </c>
-      <c r="E121" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="15">
+      <c r="E122" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="15">
         <v>34840</v>
       </c>
-      <c r="B122" s="16" t="s">
+      <c r="B123" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="C122" s="17">
+      <c r="C123" s="17">
         <v>270</v>
       </c>
-      <c r="D122" s="17">
+      <c r="D123" s="17">
         <v>30</v>
       </c>
-      <c r="E122" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="4">
-        <v>39141</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C123" s="8">
-        <v>141</v>
-      </c>
-      <c r="D123" s="8">
-        <v>21</v>
-      </c>
-      <c r="E123" s="7">
+      <c r="E123" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
+        <v>39141</v>
+      </c>
+      <c r="B124" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C124" s="8">
+        <v>141</v>
+      </c>
+      <c r="D124" s="8">
+        <v>21</v>
+      </c>
+      <c r="E124" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
         <v>38585</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B125" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="C124" s="8">
+      <c r="C125" s="8">
         <v>192</v>
       </c>
-      <c r="D124" s="8">
+      <c r="D125" s="8">
         <v>16</v>
       </c>
-      <c r="E124" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A125" s="15">
+      <c r="E125" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="15">
         <v>34459</v>
       </c>
-      <c r="B125" s="16" t="s">
+      <c r="B126" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="C125" s="17">
+      <c r="C126" s="17">
         <v>270</v>
       </c>
-      <c r="D125" s="17">
-        <v>1</v>
-      </c>
-      <c r="E125" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
-        <v>36252</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C126" s="8">
-        <v>180</v>
-      </c>
-      <c r="D126" s="8">
-        <v>15</v>
-      </c>
-      <c r="E126" s="7">
+      <c r="D126" s="17">
+        <v>1</v>
+      </c>
+      <c r="E126" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
-        <v>34754</v>
+        <v>36252</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C127" s="8">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D127" s="8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E127" s="7">
         <v>1</v>
@@ -3238,16 +3236,16 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="4">
-        <v>32605</v>
+        <v>34754</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C128" s="8">
-        <v>3000</v>
+        <v>120</v>
       </c>
       <c r="D128" s="8">
-        <v>1500</v>
+        <v>20</v>
       </c>
       <c r="E128" s="7">
         <v>1</v>
@@ -3255,16 +3253,16 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
-        <v>32375</v>
+        <v>32605</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C129" s="8">
-        <v>4014</v>
+        <v>3000</v>
       </c>
       <c r="D129" s="8">
-        <v>669</v>
+        <v>1500</v>
       </c>
       <c r="E129" s="7">
         <v>1</v>
@@ -3272,16 +3270,16 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="4">
-        <v>772</v>
+        <v>32375</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C130" s="8">
-        <v>18</v>
-      </c>
-      <c r="D130" s="9">
-        <v>0</v>
+        <v>4014</v>
+      </c>
+      <c r="D130" s="8">
+        <v>669</v>
       </c>
       <c r="E130" s="7">
         <v>1</v>
@@ -3289,10 +3287,10 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
-        <v>9442</v>
+        <v>772</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C131" s="8">
         <v>18</v>
@@ -3306,10 +3304,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
-        <v>15190</v>
+        <v>9442</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C132" s="8">
         <v>18</v>
@@ -3323,13 +3321,13 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
-        <v>9096</v>
+        <v>15190</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C133" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D133" s="9">
         <v>0</v>
@@ -3340,10 +3338,10 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
-        <v>9274</v>
+        <v>9096</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C134" s="8">
         <v>12</v>
@@ -3357,16 +3355,16 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
-        <v>35083</v>
+        <v>9274</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C135" s="8">
-        <v>19.2</v>
-      </c>
-      <c r="D135" s="8">
-        <v>3.2</v>
+        <v>12</v>
+      </c>
+      <c r="D135" s="9">
+        <v>0</v>
       </c>
       <c r="E135" s="7">
         <v>1</v>
@@ -3374,16 +3372,16 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
-        <v>38839</v>
+        <v>35083</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C136" s="8">
-        <v>6.06</v>
+        <v>19.2</v>
       </c>
       <c r="D136" s="8">
-        <v>1.01</v>
+        <v>3.2</v>
       </c>
       <c r="E136" s="7">
         <v>1</v>
@@ -3391,16 +3389,16 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="4">
-        <v>35572</v>
+        <v>38839</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C137" s="8">
-        <v>370</v>
-      </c>
-      <c r="D137" s="9">
-        <v>0</v>
+        <v>6.06</v>
+      </c>
+      <c r="D137" s="8">
+        <v>1.01</v>
       </c>
       <c r="E137" s="7">
         <v>1</v>
@@ -3408,67 +3406,67 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
+        <v>35572</v>
+      </c>
+      <c r="B138" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C138" s="8">
+        <v>370</v>
+      </c>
+      <c r="D138" s="9">
+        <v>0</v>
+      </c>
+      <c r="E138" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
         <v>35619</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B139" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C138" s="8">
+      <c r="C139" s="8">
         <v>1536</v>
       </c>
-      <c r="D138" s="8">
+      <c r="D139" s="8">
         <v>192</v>
       </c>
-      <c r="E138" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" s="15">
+      <c r="E139" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="15">
         <v>35610</v>
       </c>
-      <c r="B139" s="16" t="s">
+      <c r="B140" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C139" s="17">
+      <c r="C140" s="17">
         <v>1536</v>
       </c>
-      <c r="D139" s="17">
+      <c r="D140" s="17">
         <v>192</v>
       </c>
-      <c r="E139" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" s="4">
-        <v>38141</v>
-      </c>
-      <c r="B140" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C140" s="8">
-        <v>4</v>
-      </c>
-      <c r="D140" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="E140" s="7">
+      <c r="E140" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
-        <v>21671</v>
+        <v>38141</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C141" s="8">
-        <v>1500</v>
-      </c>
-      <c r="D141" s="9">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D141" s="10">
+        <v>0.25</v>
       </c>
       <c r="E141" s="7">
         <v>1</v>
@@ -3476,13 +3474,13 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="4">
-        <v>33345</v>
+        <v>21671</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C142" s="8">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="D142" s="9">
         <v>0</v>
@@ -3493,13 +3491,13 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="4">
-        <v>32997</v>
+        <v>33345</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C143" s="8">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="D143" s="9">
         <v>0</v>
@@ -3510,13 +3508,13 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="4">
-        <v>35835</v>
+        <v>32997</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C144" s="8">
-        <v>304</v>
+        <v>600</v>
       </c>
       <c r="D144" s="9">
         <v>0</v>
@@ -3527,16 +3525,16 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="4">
-        <v>23188</v>
+        <v>35835</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C145" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D145" s="8">
-        <v>500</v>
+        <v>304</v>
+      </c>
+      <c r="D145" s="9">
+        <v>0</v>
       </c>
       <c r="E145" s="7">
         <v>1</v>
@@ -3544,16 +3542,16 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="4">
-        <v>37811</v>
+        <v>23188</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C146" s="8">
+        <v>1000</v>
+      </c>
+      <c r="D146" s="8">
         <v>500</v>
-      </c>
-      <c r="D146" s="12">
-        <v>0</v>
       </c>
       <c r="E146" s="7">
         <v>1</v>
@@ -3561,15 +3559,15 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="4">
-        <v>35505</v>
+        <v>37811</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C147" s="8">
-        <v>100</v>
-      </c>
-      <c r="D147" s="9">
+        <v>500</v>
+      </c>
+      <c r="D147" s="12">
         <v>0</v>
       </c>
       <c r="E147" s="7">
@@ -3578,13 +3576,13 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="4">
-        <v>36109</v>
+        <v>35505</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C148" s="8">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D148" s="9">
         <v>0</v>
@@ -3595,16 +3593,16 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="4">
-        <v>19555</v>
+        <v>36109</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C149" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D149" s="8">
-        <v>250</v>
+        <v>500</v>
+      </c>
+      <c r="D149" s="9">
+        <v>0</v>
       </c>
       <c r="E149" s="7">
         <v>1</v>
@@ -3612,10 +3610,10 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="4">
-        <v>19556</v>
+        <v>19555</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C150" s="8">
         <v>1000</v>
@@ -3629,16 +3627,16 @@
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="4">
-        <v>19557</v>
+        <v>19556</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C151" s="8">
-        <v>500</v>
-      </c>
-      <c r="D151" s="9">
-        <v>0</v>
+        <v>1000</v>
+      </c>
+      <c r="D151" s="8">
+        <v>250</v>
       </c>
       <c r="E151" s="7">
         <v>1</v>
@@ -3646,16 +3644,16 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="4">
-        <v>10947</v>
+        <v>19557</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C152" s="8">
-        <v>10</v>
-      </c>
-      <c r="D152" s="8">
-        <v>0.5</v>
+        <v>500</v>
+      </c>
+      <c r="D152" s="9">
+        <v>0</v>
       </c>
       <c r="E152" s="7">
         <v>1</v>
@@ -3663,16 +3661,16 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="4">
-        <v>33290</v>
+        <v>10947</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C153" s="8">
-        <v>2500</v>
-      </c>
-      <c r="D153" s="9">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="D153" s="8">
+        <v>0.5</v>
       </c>
       <c r="E153" s="7">
         <v>1</v>
@@ -3680,16 +3678,16 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="4">
-        <v>35144</v>
+        <v>33290</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C154" s="8">
-        <v>6000</v>
-      </c>
-      <c r="D154" s="8">
-        <v>500</v>
+        <v>2500</v>
+      </c>
+      <c r="D154" s="9">
+        <v>0</v>
       </c>
       <c r="E154" s="7">
         <v>1</v>
@@ -3697,16 +3695,16 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="4">
-        <v>2248</v>
+        <v>35144</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C155" s="8">
-        <v>18</v>
-      </c>
-      <c r="D155" s="9">
-        <v>0</v>
+        <v>6000</v>
+      </c>
+      <c r="D155" s="8">
+        <v>500</v>
       </c>
       <c r="E155" s="7">
         <v>1</v>
@@ -3714,10 +3712,10 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="4">
-        <v>7431</v>
+        <v>2248</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C156" s="8">
         <v>18</v>
@@ -3731,13 +3729,13 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="4">
-        <v>35047</v>
+        <v>7431</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C157" s="8">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D157" s="9">
         <v>0</v>
@@ -3748,10 +3746,10 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="4">
-        <v>35959</v>
+        <v>35047</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C158" s="8">
         <v>12</v>
@@ -3765,10 +3763,10 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="4">
-        <v>35046</v>
+        <v>35959</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C159" s="8">
         <v>12</v>
@@ -3782,13 +3780,13 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="4">
-        <v>33128</v>
+        <v>35046</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C160" s="8">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="D160" s="9">
         <v>0</v>
@@ -3799,13 +3797,13 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="4">
-        <v>22156</v>
+        <v>33128</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C161" s="8">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="D161" s="9">
         <v>0</v>
@@ -3816,10 +3814,10 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="4">
-        <v>31193</v>
+        <v>22156</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C162" s="8">
         <v>350</v>
@@ -3833,16 +3831,16 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="4">
-        <v>31439</v>
+        <v>31193</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C163" s="8">
-        <v>1800</v>
-      </c>
-      <c r="D163" s="8">
-        <v>100</v>
+        <v>350</v>
+      </c>
+      <c r="D163" s="9">
+        <v>0</v>
       </c>
       <c r="E163" s="7">
         <v>1</v>
@@ -3850,16 +3848,16 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="4">
-        <v>34600</v>
+        <v>31439</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C164" s="8">
-        <v>900</v>
+        <v>1800</v>
       </c>
       <c r="D164" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E164" s="7">
         <v>1</v>
@@ -3867,16 +3865,16 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="4">
-        <v>34741</v>
+        <v>34600</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C165" s="8">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="D165" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E165" s="7">
         <v>1</v>
@@ -3884,69 +3882,86 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="4">
+        <v>34741</v>
+      </c>
+      <c r="B166" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C166" s="8">
+        <v>1200</v>
+      </c>
+      <c r="D166" s="8">
+        <v>100</v>
+      </c>
+      <c r="E166" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
         <v>36206</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B167" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C166" s="8">
+      <c r="C167" s="8">
         <v>72</v>
       </c>
-      <c r="D166" s="8">
+      <c r="D167" s="8">
         <v>18</v>
       </c>
-      <c r="E166" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" s="15">
+      <c r="E167" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="15">
         <v>28451</v>
       </c>
-      <c r="B167" s="16" t="s">
+      <c r="B168" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="C167" s="17">
+      <c r="C168" s="17">
         <v>72</v>
       </c>
-      <c r="D167" s="17">
+      <c r="D168" s="17">
         <v>18</v>
       </c>
-      <c r="E167" s="18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" s="4">
-        <v>19909</v>
-      </c>
-      <c r="B168" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C168" s="8">
-        <v>7</v>
-      </c>
-      <c r="D168" s="9">
-        <v>0</v>
-      </c>
-      <c r="E168" s="7">
+      <c r="E168" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="4">
+        <v>19909</v>
+      </c>
+      <c r="B169" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C169" s="8">
+        <v>7</v>
+      </c>
+      <c r="D169" s="9">
+        <v>0</v>
+      </c>
+      <c r="E169" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
         <v>35219</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B170" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C169" s="8">
+      <c r="C170" s="8">
         <v>120</v>
       </c>
-      <c r="D169" s="9">
-        <v>0</v>
-      </c>
-      <c r="E169" s="7">
+      <c r="D170" s="9">
+        <v>0</v>
+      </c>
+      <c r="E170" s="7">
         <v>1</v>
       </c>
     </row>
